--- a/pml/Assignment2/data.xlsx
+++ b/pml/Assignment2/data.xlsx
@@ -8,17 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbhatta1\dev\ml-assignments\pml\Assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{76D3AEA7-DBFF-4126-B32A-F249D05965C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{155104D3-B2A4-41FB-B5FD-A9EC3F0C81BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="-120" windowWidth="28065" windowHeight="16440"/>
+    <workbookView xWindow="855" yWindow="-120" windowWidth="28065" windowHeight="16440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Benefit From Smote" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="SMOTE benefit" sheetId="2" r:id="rId3"/>
+    <sheet name="Final Performance" sheetId="5" r:id="rId2"/>
+    <sheet name="SAMPLING COMPARED" sheetId="7" r:id="rId3"/>
+    <sheet name="Gradient Boost Sampling" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId8"/>
+    <sheet name="SMOTE benefit" sheetId="2" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Benefit From Smote'!$A$1:$G$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Benefit From Smote'!$A$1:$J$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'SAMPLING COMPARED'!$A$1:$E$73</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="72">
   <si>
     <t>F1 With Smote</t>
   </si>
@@ -138,6 +145,123 @@
   <si>
     <t>PCA 7, FWE f_classif</t>
   </si>
+  <si>
+    <t>w SMOTE</t>
+  </si>
+  <si>
+    <t>Optimized</t>
+  </si>
+  <si>
+    <t>Gradient Boost With SMOTE</t>
+  </si>
+  <si>
+    <t>Optimized Random Forest with SMOTE</t>
+  </si>
+  <si>
+    <t>Optimized Gradient Boost with SMOTE</t>
+  </si>
+  <si>
+    <t>Optimized SVM with SMOTE</t>
+  </si>
+  <si>
+    <t>Gradient Boosting with SVMSMOTE</t>
+  </si>
+  <si>
+    <t>RUSBoost</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    GradientBoosting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        RandomForest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 SVC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          svmsmote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        smotetomek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             smote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            adasyn</t>
+  </si>
+  <si>
+    <t>RandomOversampling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              NONE</t>
+  </si>
+  <si>
+    <t>Variance Threshold 0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  NONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    RFECV RandomForest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         FWE f_classif</t>
+  </si>
+  <si>
+    <t>Samplijng Method</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Gradient Boost</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>SVC</t>
+  </si>
+  <si>
+    <t>F1 Score</t>
+  </si>
+  <si>
+    <t>Boosting Algorithms</t>
+  </si>
+  <si>
+    <t>Random Forest Variations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Unoptimized Support Vector Machines</t>
+  </si>
+  <si>
+    <t>Unoptimized  SVM With SMOTE</t>
+  </si>
+  <si>
+    <t>Unoptimized Random Forest</t>
+  </si>
+  <si>
+    <t>Unoptimized  Random Forest With SMOTE</t>
+  </si>
+  <si>
+    <t>Optimized Random Forest weighted 0.75:0.25 (NO SMOTE)</t>
+  </si>
+  <si>
+    <t>Optimized Random Forest with Adjusted Cut-offs</t>
+  </si>
+  <si>
+    <t>Optimized BalancedRandomForest (imblearn)</t>
+  </si>
+  <si>
+    <t>Optimized Random Forest with TOMEK-SMOTE</t>
+  </si>
 </sst>
 </file>
 
@@ -152,7 +276,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,6 +286,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -178,12 +308,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -202,6 +342,1433 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Gradient Boost</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gradient Boost Sampling'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gradient Boost Sampling'!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>          svmsmote</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>        smotetomek</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>            adasyn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>             smote</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RandomOversampling</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>              NONE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gradient Boost Sampling'!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.83899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84150000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84140000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84109999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80410000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86480000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-81AA-478F-9EF4-AECE8272AA3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gradient Boost Sampling'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gradient Boost Sampling'!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>          svmsmote</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>        smotetomek</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>            adasyn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>             smote</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RandomOversampling</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>              NONE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gradient Boost Sampling'!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.63022999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62661999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62577000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62336999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60875000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58577999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-81AA-478F-9EF4-AECE8272AA3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="616603736"/>
+        <c:axId val="616603080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="616603736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="616603080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="616603080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="616603736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Random</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Forest</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gradient Boost Sampling'!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gradient Boost Sampling'!$A$12:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>          svmsmote</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>             smote</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>        smotetomek</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RandomOversampling</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>            adasyn</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>              NONE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gradient Boost Sampling'!$B$12:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.83309999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82210000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.81100000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6166-4183-93BC-BA74DD6092B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gradient Boost Sampling'!$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gradient Boost Sampling'!$A$12:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>          svmsmote</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>             smote</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>        smotetomek</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RandomOversampling</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>            adasyn</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>              NONE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gradient Boost Sampling'!$C$12:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.62485999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61853000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61773999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61112999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61046999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60787999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6166-4183-93BC-BA74DD6092B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="772574576"/>
+        <c:axId val="772571624"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="772574576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="772571624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="772571624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="772574576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>SVC</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gradient Boost Sampling'!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gradient Boost Sampling'!$A$21:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>RandomOversampling</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>          svmsmote</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>             smote</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>        smotetomek</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>            adasyn</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>              NONE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gradient Boost Sampling'!$B$21:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.79759999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79779999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76680000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C90C-4EEB-BDB9-170E3D70F382}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gradient Boost Sampling'!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gradient Boost Sampling'!$A$21:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>RandomOversampling</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>          svmsmote</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>             smote</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>        smotetomek</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>            adasyn</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>              NONE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gradient Boost Sampling'!$C$21:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.60063</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59857000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59367000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59282999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57242000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51963999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C90C-4EEB-BDB9-170E3D70F382}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="704967904"/>
+        <c:axId val="770304280"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="704967904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="770304280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="770304280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="704967904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -627,6 +2194,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -1130,7 +2817,1629 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600488</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>48867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>269184</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>149086</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE3EEB03-337F-4E75-8459-953A579D9370}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>140805</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>32301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>422413</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>99390</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB9F1F82-205F-4AF6-8353-4366AAE9F5A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>248479</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>156540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>530087</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57977</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDC01A6E-14E6-4EC3-B75A-EFAB2D2D2505}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1468,13 +4777,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1521,7 +4831,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1546,7 +4856,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1571,7 +4881,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1596,7 +4906,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1621,7 +4931,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1646,7 +4956,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1671,7 +4981,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1696,7 +5006,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1789,7 +5099,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1848,7 +5158,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1873,7 +5183,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1898,7 +5208,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -1923,7 +5233,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1974,13 +5284,1896 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G18"/>
+  <autoFilter ref="A1:J18">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="0.54041"/>
+        <filter val="0.59581"/>
+        <filter val="0.62438"/>
+        <filter val="0.63119"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3">
+        <f>ROUND(C3, 3)</f>
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="C3">
+        <v>0.53100000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B19" si="0">ROUND(C4, 3)</f>
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="C4">
+        <v>0.59199999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="C5">
+        <v>0.5958</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="C7">
+        <v>0.58473280000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C8">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0.629</v>
+      </c>
+      <c r="C9">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="C10">
+        <v>0.63119999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0.63</v>
+      </c>
+      <c r="C11">
+        <v>0.63022999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="C13">
+        <v>0.57399999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="C14">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.624</v>
+      </c>
+      <c r="C15">
+        <v>0.62439999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+      <c r="C16">
+        <v>0.62519999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0.628</v>
+      </c>
+      <c r="C17">
+        <v>0.62777000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="C18">
+        <v>0.63290999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>0.628</v>
+      </c>
+      <c r="C19">
+        <v>0.62831999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E46" sqref="E46:E73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="E2">
+        <v>0.63022999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="E3">
+        <v>0.63022999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4">
+        <v>0.83850000000000002</v>
+      </c>
+      <c r="E4">
+        <v>0.62932999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5">
+        <v>0.83240000000000003</v>
+      </c>
+      <c r="E5">
+        <v>0.62904000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6">
+        <v>0.83650000000000002</v>
+      </c>
+      <c r="E6">
+        <v>0.62831999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7">
+        <v>0.83209999999999995</v>
+      </c>
+      <c r="E7">
+        <v>0.62829000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8">
+        <v>0.84150000000000003</v>
+      </c>
+      <c r="E8">
+        <v>0.62661999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9">
+        <v>0.84150000000000003</v>
+      </c>
+      <c r="E9">
+        <v>0.62661999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10">
+        <v>0.84140000000000004</v>
+      </c>
+      <c r="E10">
+        <v>0.62629999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>0.83520000000000005</v>
+      </c>
+      <c r="E11">
+        <v>0.62612999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12">
+        <v>0.84160000000000001</v>
+      </c>
+      <c r="E12">
+        <v>0.62588999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13">
+        <v>0.84140000000000004</v>
+      </c>
+      <c r="E13">
+        <v>0.62577000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14">
+        <v>0.84140000000000004</v>
+      </c>
+      <c r="E14">
+        <v>0.62577000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15">
+        <v>0.83579999999999999</v>
+      </c>
+      <c r="E15">
+        <v>0.62511000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16">
+        <v>0.83309999999999995</v>
+      </c>
+      <c r="E16">
+        <v>0.62485999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17">
+        <v>0.83309999999999995</v>
+      </c>
+      <c r="E17">
+        <v>0.62485999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18">
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="E18">
+        <v>0.62348000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19">
+        <v>0.84109999999999996</v>
+      </c>
+      <c r="E19">
+        <v>0.62336999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20">
+        <v>0.84109999999999996</v>
+      </c>
+      <c r="E20">
+        <v>0.62336999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="E21">
+        <v>0.62280999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="E22">
+        <v>0.62273000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23">
+        <v>0.83640000000000003</v>
+      </c>
+      <c r="E23">
+        <v>0.62058999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24">
+        <v>0.83630000000000004</v>
+      </c>
+      <c r="E24">
+        <v>0.62026999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25">
+        <v>0.81940000000000002</v>
+      </c>
+      <c r="E25">
+        <v>0.61882999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26">
+        <v>0.8357</v>
+      </c>
+      <c r="E26">
+        <v>0.61853000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27">
+        <v>0.8357</v>
+      </c>
+      <c r="E27">
+        <v>0.61853000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28">
+        <v>0.83489999999999998</v>
+      </c>
+      <c r="E28">
+        <v>0.61773999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29">
+        <v>0.83489999999999998</v>
+      </c>
+      <c r="E29">
+        <v>0.61773999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30">
+        <v>0.82389999999999997</v>
+      </c>
+      <c r="E30">
+        <v>0.61692000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="E31">
+        <v>0.61395</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32">
+        <v>0.8236</v>
+      </c>
+      <c r="E32">
+        <v>0.61299000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="E33">
+        <v>0.61294000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34">
+        <v>0.81520000000000004</v>
+      </c>
+      <c r="E34">
+        <v>0.61192999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35">
+        <v>0.81559999999999999</v>
+      </c>
+      <c r="E35">
+        <v>0.61112999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36">
+        <v>0.82210000000000005</v>
+      </c>
+      <c r="E36">
+        <v>0.61046999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37">
+        <v>0.82210000000000005</v>
+      </c>
+      <c r="E37">
+        <v>0.61046999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38">
+        <v>0.81259999999999999</v>
+      </c>
+      <c r="E38">
+        <v>0.60926000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39">
+        <v>0.80620000000000003</v>
+      </c>
+      <c r="E39">
+        <v>0.60880000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40">
+        <v>0.80410000000000004</v>
+      </c>
+      <c r="E40">
+        <v>0.60875000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41">
+        <v>0.80489999999999995</v>
+      </c>
+      <c r="E41">
+        <v>0.60814999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="E42">
+        <v>0.60787999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="E43">
+        <v>0.60787999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44">
+        <v>0.80279999999999996</v>
+      </c>
+      <c r="E44">
+        <v>0.60685999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45">
+        <v>0.80220000000000002</v>
+      </c>
+      <c r="E45">
+        <v>0.60487000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46">
+        <v>0.79759999999999998</v>
+      </c>
+      <c r="E46">
+        <v>0.60063</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47">
+        <v>0.79790000000000005</v>
+      </c>
+      <c r="E47">
+        <v>0.60019999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48">
+        <v>0.80059999999999998</v>
+      </c>
+      <c r="E48">
+        <v>0.59911999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49">
+        <v>0.7984</v>
+      </c>
+      <c r="E49">
+        <v>0.59857000000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50">
+        <v>0.7984</v>
+      </c>
+      <c r="E50">
+        <v>0.59857000000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51">
+        <v>0.7944</v>
+      </c>
+      <c r="E51">
+        <v>0.59797</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52">
+        <v>0.79790000000000005</v>
+      </c>
+      <c r="E52">
+        <v>0.59716999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53">
+        <v>0.79569999999999996</v>
+      </c>
+      <c r="E53">
+        <v>0.59696000000000005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54">
+        <v>0.79859999999999998</v>
+      </c>
+      <c r="E54">
+        <v>0.59574000000000005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55">
+        <v>0.79290000000000005</v>
+      </c>
+      <c r="E55">
+        <v>0.59558999999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56">
+        <v>0.79849999999999999</v>
+      </c>
+      <c r="E56">
+        <v>0.59367000000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57">
+        <v>0.79849999999999999</v>
+      </c>
+      <c r="E57">
+        <v>0.59367000000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58">
+        <v>0.79779999999999995</v>
+      </c>
+      <c r="E58">
+        <v>0.59282999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59">
+        <v>0.79779999999999995</v>
+      </c>
+      <c r="E59">
+        <v>0.59282999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D60">
+        <v>0.79759999999999998</v>
+      </c>
+      <c r="E60">
+        <v>0.59243000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61">
+        <v>0.79720000000000002</v>
+      </c>
+      <c r="E61">
+        <v>0.59179000000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D62">
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="E62">
+        <v>0.58577999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63">
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="E63">
+        <v>0.58577999999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D64">
+        <v>0.8639</v>
+      </c>
+      <c r="E64">
+        <v>0.58518999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D65">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="E65">
+        <v>0.58153999999999995</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D66">
+        <v>0.76719999999999999</v>
+      </c>
+      <c r="E66">
+        <v>0.57840999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D67">
+        <v>0.76680000000000004</v>
+      </c>
+      <c r="E67">
+        <v>0.57242000000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D68">
+        <v>0.76680000000000004</v>
+      </c>
+      <c r="E68">
+        <v>0.57242000000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="E69">
+        <v>0.57126999999999994</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D70">
+        <v>0.85809999999999997</v>
+      </c>
+      <c r="E70">
+        <v>0.52746999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D71">
+        <v>0.85719999999999996</v>
+      </c>
+      <c r="E71">
+        <v>0.52336000000000005</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D72">
+        <v>0.8569</v>
+      </c>
+      <c r="E72">
+        <v>0.51963999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D73">
+        <v>0.8569</v>
+      </c>
+      <c r="E73">
+        <v>0.51963999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E73">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="SVC"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="NONE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="C3">
+        <v>0.63022999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>0.84150000000000003</v>
+      </c>
+      <c r="C4">
+        <v>0.62661999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <v>0.84140000000000004</v>
+      </c>
+      <c r="C5">
+        <v>0.62577000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>0.84109999999999996</v>
+      </c>
+      <c r="C6">
+        <v>0.62336999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>0.80410000000000004</v>
+      </c>
+      <c r="C7">
+        <v>0.60875000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="C8">
+        <v>0.58577999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>0.83309999999999995</v>
+      </c>
+      <c r="C12">
+        <v>0.62485999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13">
+        <v>0.8357</v>
+      </c>
+      <c r="C13">
+        <v>0.61853000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14">
+        <v>0.83489999999999998</v>
+      </c>
+      <c r="C14">
+        <v>0.61773999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15">
+        <v>0.81559999999999999</v>
+      </c>
+      <c r="C15">
+        <v>0.61112999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16">
+        <v>0.82210000000000005</v>
+      </c>
+      <c r="C16">
+        <v>0.61046999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="C17">
+        <v>0.60787999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21">
+        <v>0.79759999999999998</v>
+      </c>
+      <c r="C21">
+        <v>0.60063</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22">
+        <v>0.7984</v>
+      </c>
+      <c r="C22">
+        <v>0.59857000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23">
+        <v>0.79849999999999999</v>
+      </c>
+      <c r="C23">
+        <v>0.59367000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>0.79779999999999995</v>
+      </c>
+      <c r="C24">
+        <v>0.59282999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25">
+        <v>0.76680000000000004</v>
+      </c>
+      <c r="C25">
+        <v>0.57242000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>0.8569</v>
+      </c>
+      <c r="C26">
+        <v>0.51963999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="C2">
+        <f>ROUND(D2, 3)</f>
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="D2">
+        <v>0.59581176769641797</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>0.629</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C5" si="0">ROUND(D3, 3)</f>
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.63118839556405804</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>0.6</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.624</v>
+      </c>
+      <c r="D4">
+        <v>0.62437522528689204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+      <c r="D5">
+        <v>0.54041283136437801</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -2066,7 +7259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>

--- a/pml/Assignment2/data.xlsx
+++ b/pml/Assignment2/data.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbhatta1\dev\ml-assignments\pml\Assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{155104D3-B2A4-41FB-B5FD-A9EC3F0C81BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{A07D78B7-ECFF-47DC-83AC-3259250B9E34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="-120" windowWidth="28065" windowHeight="16440" activeTab="1"/>
+    <workbookView xWindow="855" yWindow="-120" windowWidth="28065" windowHeight="16440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Benefit From Smote" sheetId="1" r:id="rId1"/>
     <sheet name="Final Performance" sheetId="5" r:id="rId2"/>
-    <sheet name="SAMPLING COMPARED" sheetId="7" r:id="rId3"/>
-    <sheet name="Gradient Boost Sampling" sheetId="8" r:id="rId4"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId7"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId8"/>
-    <sheet name="SMOTE benefit" sheetId="2" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId3"/>
+    <sheet name="SAMPLING COMPARED" sheetId="7" r:id="rId4"/>
+    <sheet name="Gradient Boost Sampling" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId9"/>
+    <sheet name="SMOTE benefit" sheetId="2" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Benefit From Smote'!$A$1:$J$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'SAMPLING COMPARED'!$A$1:$E$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'SAMPLING COMPARED'!$A$1:$E$73</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="78">
   <si>
     <t>F1 With Smote</t>
   </si>
@@ -262,6 +263,24 @@
   <si>
     <t>Optimized Random Forest with TOMEK-SMOTE</t>
   </si>
+  <si>
+    <t>Contamination 0.001</t>
+  </si>
+  <si>
+    <t>Contamination 0.01</t>
+  </si>
+  <si>
+    <t>Random Seed</t>
+  </si>
+  <si>
+    <t>Number of Outliers Predicted</t>
+  </si>
+  <si>
+    <t>STDDEV</t>
+  </si>
+  <si>
+    <t>MEAN</t>
+  </si>
 </sst>
 </file>
 
@@ -276,7 +295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,6 +314,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -308,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -323,6 +348,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5299,17 +5327,253 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <f>ROUND(C2, 2)</f>
+        <v>1396.97</v>
+      </c>
+      <c r="C2">
+        <v>1396.969696969697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <f t="shared" ref="B3:B18" si="0">ROUND(C3, 2)</f>
+        <v>967.39</v>
+      </c>
+      <c r="C3">
+        <v>967.39130434782612</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" si="0"/>
+        <v>126.61</v>
+      </c>
+      <c r="C4">
+        <v>126.60550458715598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>55.17</v>
+      </c>
+      <c r="C5">
+        <v>55.172413793103445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>41.14</v>
+      </c>
+      <c r="C6">
+        <v>41.137123745819402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>29.57</v>
+      </c>
+      <c r="C7">
+        <v>29.568106312292368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>24.19</v>
+      </c>
+      <c r="C8">
+        <v>24.193548387096779</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>16.63</v>
+      </c>
+      <c r="C9">
+        <v>16.628175519630485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>11.49</v>
+      </c>
+      <c r="C10">
+        <v>11.487758945386052</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="C11">
+        <v>8.4482758620689733</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>4.96</v>
+      </c>
+      <c r="C12">
+        <v>4.9645390070922035</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>4.53</v>
+      </c>
+      <c r="C13">
+        <v>4.5296167247386805</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>3.89</v>
+      </c>
+      <c r="C14">
+        <v>3.891050583657591</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.73</v>
+      </c>
+      <c r="C15">
+        <v>0.72727272727272785</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.99</v>
+      </c>
+      <c r="C17">
+        <v>-0.9940357852882713</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.17</v>
+      </c>
+      <c r="C18">
+        <v>-1.1686143572621046</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5526,6 +5790,227 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="D1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>155</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>231</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>3905</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>386</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>4221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>540</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>3715</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>323</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>435</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>147</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>166</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>320</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>272</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14">
+        <f>_xlfn.STDEV.P(B3:B12)</f>
+        <v>123.29740467665977</v>
+      </c>
+      <c r="D14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14">
+        <f>_xlfn.STDEV.P(E3:E12)</f>
+        <v>747.11487737830521</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15">
+        <f>AVERAGE(B3:B12)</f>
+        <v>297.5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15">
+        <f>AVERAGE(E3:E12)</f>
+        <v>2938.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E73"/>
@@ -6800,7 +7285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
@@ -7056,18 +7541,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7085,6 +7558,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7173,7 +7658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -7257,240 +7742,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1">
-        <f>ROUND(C2, 2)</f>
-        <v>1396.97</v>
-      </c>
-      <c r="C2">
-        <v>1396.969696969697</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1">
-        <f t="shared" ref="B3:B18" si="0">ROUND(C3, 2)</f>
-        <v>967.39</v>
-      </c>
-      <c r="C3">
-        <v>967.39130434782612</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1">
-        <f t="shared" si="0"/>
-        <v>126.61</v>
-      </c>
-      <c r="C4">
-        <v>126.60550458715598</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1">
-        <f t="shared" si="0"/>
-        <v>55.17</v>
-      </c>
-      <c r="C5">
-        <v>55.172413793103445</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>41.14</v>
-      </c>
-      <c r="C6">
-        <v>41.137123745819402</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>29.57</v>
-      </c>
-      <c r="C7">
-        <v>29.568106312292368</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>24.19</v>
-      </c>
-      <c r="C8">
-        <v>24.193548387096779</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>16.63</v>
-      </c>
-      <c r="C9">
-        <v>16.628175519630485</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>11.49</v>
-      </c>
-      <c r="C10">
-        <v>11.487758945386052</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="C11">
-        <v>8.4482758620689733</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>4.96</v>
-      </c>
-      <c r="C12">
-        <v>4.9645390070922035</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>4.53</v>
-      </c>
-      <c r="C13">
-        <v>4.5296167247386805</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <f t="shared" si="0"/>
-        <v>3.89</v>
-      </c>
-      <c r="C14">
-        <v>3.891050583657591</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>0.73</v>
-      </c>
-      <c r="C15">
-        <v>0.72727272727272785</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.99</v>
-      </c>
-      <c r="C17">
-        <v>-0.9940357852882713</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.17</v>
-      </c>
-      <c r="C18">
-        <v>-1.1686143572621046</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/pml/Assignment2/data.xlsx
+++ b/pml/Assignment2/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbhatta1\dev\ml-assignments\pml\Assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{A07D78B7-ECFF-47DC-83AC-3259250B9E34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{2A9B051E-2818-422A-A7D9-3DD2EC864B02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="-120" windowWidth="28065" windowHeight="16440" activeTab="2"/>
+    <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Benefit From Smote" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="80">
   <si>
     <t>F1 With Smote</t>
   </si>
@@ -168,9 +168,6 @@
     <t>Gradient Boosting with SVMSMOTE</t>
   </si>
   <si>
-    <t>RUSBoost</t>
-  </si>
-  <si>
     <t>f</t>
   </si>
   <si>
@@ -280,13 +277,22 @@
   </si>
   <si>
     <t>MEAN</t>
+  </si>
+  <si>
+    <t>Optimized RUSBoost</t>
+  </si>
+  <si>
+    <t>Optimized SVM with SMOTE, feature-selection and PCA(10)</t>
+  </si>
+  <si>
+    <t>Optimized Random Forest with SMOTE and feature selection</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,13 +300,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -330,30 +348,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5565,10 +5586,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5581,17 +5602,17 @@
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3">
         <f>ROUND(C3, 3)</f>
@@ -5603,10 +5624,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B19" si="0">ROUND(C4, 3)</f>
+        <f t="shared" ref="B4:B21" si="0">ROUND(C4, 3)</f>
         <v>0.59199999999999997</v>
       </c>
       <c r="C4">
@@ -5618,170 +5639,194 @@
         <v>38</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
+        <f>ROUND(C5, 3)</f>
         <v>0.59599999999999997</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="8">
         <v>0.5958</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7">
+    <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6">
+        <f>ROUND(C6, 3)</f>
+        <v>0.6</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.60040000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8">
         <f t="shared" si="0"/>
         <v>0.58499999999999996</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>0.58473280000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <f t="shared" si="0"/>
         <v>0.57999999999999996</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <f t="shared" si="0"/>
         <v>0.629</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>0.629</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <f t="shared" si="0"/>
         <v>0.63100000000000001</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>0.63119999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <f t="shared" si="0"/>
         <v>0.63</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>0.63022999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14">
         <f t="shared" si="0"/>
         <v>0.57399999999999995</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>0.57399999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>0.6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <f t="shared" si="0"/>
         <v>0.624</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>0.62439999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0.627</v>
+      </c>
+      <c r="C17">
+        <v>0.62680000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18">
         <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
-      <c r="C16">
+      <c r="C18">
         <v>0.62519999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>0.628</v>
-      </c>
-      <c r="C17">
-        <v>0.62777000000000005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="C18">
-        <v>0.63290999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
         <v>0.628</v>
       </c>
       <c r="C19">
-        <v>0.62831999999999999</v>
+        <v>0.62777000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="C20">
+        <v>0.63290999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>70</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>0.628</v>
+      </c>
+      <c r="C21">
+        <v>0.62831999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -5793,8 +5838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5807,26 +5852,26 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="7"/>
       <c r="D1" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5971,14 +6016,14 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14">
         <f>_xlfn.STDEV.P(B3:B12)</f>
         <v>123.29740467665977</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14">
         <f>_xlfn.STDEV.P(E3:E12)</f>
@@ -5987,14 +6032,14 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15">
         <f>AVERAGE(B3:B12)</f>
         <v>297.5</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15">
         <f>AVERAGE(E3:E12)</f>
@@ -6032,27 +6077,27 @@
         <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
         <v>23</v>
       </c>
       <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>0.83899999999999997</v>
@@ -6063,13 +6108,13 @@
     </row>
     <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3">
         <v>0.83899999999999997</v>
@@ -6080,13 +6125,13 @@
     </row>
     <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4">
         <v>0.83850000000000002</v>
@@ -6097,13 +6142,13 @@
     </row>
     <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5">
         <v>0.83240000000000003</v>
@@ -6114,13 +6159,13 @@
     </row>
     <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6">
         <v>0.83650000000000002</v>
@@ -6131,13 +6176,13 @@
     </row>
     <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7">
         <v>0.83209999999999995</v>
@@ -6148,13 +6193,13 @@
     </row>
     <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8">
         <v>0.84150000000000003</v>
@@ -6165,13 +6210,13 @@
     </row>
     <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9">
         <v>0.84150000000000003</v>
@@ -6182,13 +6227,13 @@
     </row>
     <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10">
         <v>0.84140000000000004</v>
@@ -6199,13 +6244,13 @@
     </row>
     <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11">
         <v>0.83520000000000005</v>
@@ -6216,13 +6261,13 @@
     </row>
     <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12">
         <v>0.84160000000000001</v>
@@ -6233,13 +6278,13 @@
     </row>
     <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13">
         <v>0.84140000000000004</v>
@@ -6250,13 +6295,13 @@
     </row>
     <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14">
         <v>0.84140000000000004</v>
@@ -6267,13 +6312,13 @@
     </row>
     <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15">
         <v>0.83579999999999999</v>
@@ -6284,13 +6329,13 @@
     </row>
     <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16">
         <v>0.83309999999999995</v>
@@ -6301,13 +6346,13 @@
     </row>
     <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17">
         <v>0.83309999999999995</v>
@@ -6318,13 +6363,13 @@
     </row>
     <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18">
         <v>0.84189999999999998</v>
@@ -6335,13 +6380,13 @@
     </row>
     <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19">
         <v>0.84109999999999996</v>
@@ -6352,13 +6397,13 @@
     </row>
     <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20">
         <v>0.84109999999999996</v>
@@ -6369,13 +6414,13 @@
     </row>
     <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21">
         <v>0.83199999999999996</v>
@@ -6386,13 +6431,13 @@
     </row>
     <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22">
         <v>0.83399999999999996</v>
@@ -6403,13 +6448,13 @@
     </row>
     <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23">
         <v>0.83640000000000003</v>
@@ -6420,13 +6465,13 @@
     </row>
     <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24">
         <v>0.83630000000000004</v>
@@ -6437,13 +6482,13 @@
     </row>
     <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25">
         <v>0.81940000000000002</v>
@@ -6454,13 +6499,13 @@
     </row>
     <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D26">
         <v>0.8357</v>
@@ -6471,13 +6516,13 @@
     </row>
     <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27">
         <v>0.8357</v>
@@ -6488,13 +6533,13 @@
     </row>
     <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28">
         <v>0.83489999999999998</v>
@@ -6505,13 +6550,13 @@
     </row>
     <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D29">
         <v>0.83489999999999998</v>
@@ -6522,13 +6567,13 @@
     </row>
     <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30">
         <v>0.82389999999999997</v>
@@ -6539,13 +6584,13 @@
     </row>
     <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31">
         <v>0.81399999999999995</v>
@@ -6556,13 +6601,13 @@
     </row>
     <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D32">
         <v>0.8236</v>
@@ -6573,13 +6618,13 @@
     </row>
     <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D33">
         <v>0.81699999999999995</v>
@@ -6590,13 +6635,13 @@
     </row>
     <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D34">
         <v>0.81520000000000004</v>
@@ -6607,13 +6652,13 @@
     </row>
     <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D35">
         <v>0.81559999999999999</v>
@@ -6624,13 +6669,13 @@
     </row>
     <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D36">
         <v>0.82210000000000005</v>
@@ -6641,13 +6686,13 @@
     </row>
     <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D37">
         <v>0.82210000000000005</v>
@@ -6658,13 +6703,13 @@
     </row>
     <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D38">
         <v>0.81259999999999999</v>
@@ -6675,13 +6720,13 @@
     </row>
     <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D39">
         <v>0.80620000000000003</v>
@@ -6692,13 +6737,13 @@
     </row>
     <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D40">
         <v>0.80410000000000004</v>
@@ -6709,13 +6754,13 @@
     </row>
     <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D41">
         <v>0.80489999999999995</v>
@@ -6726,13 +6771,13 @@
     </row>
     <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D42">
         <v>0.81100000000000005</v>
@@ -6743,13 +6788,13 @@
     </row>
     <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D43">
         <v>0.81100000000000005</v>
@@ -6760,13 +6805,13 @@
     </row>
     <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D44">
         <v>0.80279999999999996</v>
@@ -6777,13 +6822,13 @@
     </row>
     <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D45">
         <v>0.80220000000000002</v>
@@ -6794,13 +6839,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D46">
         <v>0.79759999999999998</v>
@@ -6811,13 +6856,13 @@
     </row>
     <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C47" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D47">
         <v>0.79790000000000005</v>
@@ -6828,13 +6873,13 @@
     </row>
     <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D48">
         <v>0.80059999999999998</v>
@@ -6845,13 +6890,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D49">
         <v>0.7984</v>
@@ -6862,13 +6907,13 @@
     </row>
     <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C50" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D50">
         <v>0.7984</v>
@@ -6879,13 +6924,13 @@
     </row>
     <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D51">
         <v>0.7944</v>
@@ -6896,13 +6941,13 @@
     </row>
     <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C52" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D52">
         <v>0.79790000000000005</v>
@@ -6913,13 +6958,13 @@
     </row>
     <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D53">
         <v>0.79569999999999996</v>
@@ -6930,13 +6975,13 @@
     </row>
     <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D54">
         <v>0.79859999999999998</v>
@@ -6947,13 +6992,13 @@
     </row>
     <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D55">
         <v>0.79290000000000005</v>
@@ -6964,13 +7009,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D56">
         <v>0.79849999999999999</v>
@@ -6981,13 +7026,13 @@
     </row>
     <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D57">
         <v>0.79849999999999999</v>
@@ -6998,13 +7043,13 @@
     </row>
     <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D58">
         <v>0.79779999999999995</v>
@@ -7015,13 +7060,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D59">
         <v>0.79779999999999995</v>
@@ -7032,13 +7077,13 @@
     </row>
     <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D60">
         <v>0.79759999999999998</v>
@@ -7049,13 +7094,13 @@
     </row>
     <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D61">
         <v>0.79720000000000002</v>
@@ -7066,13 +7111,13 @@
     </row>
     <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D62">
         <v>0.86480000000000001</v>
@@ -7083,13 +7128,13 @@
     </row>
     <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D63">
         <v>0.86480000000000001</v>
@@ -7100,13 +7145,13 @@
     </row>
     <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D64">
         <v>0.8639</v>
@@ -7117,13 +7162,13 @@
     </row>
     <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D65">
         <v>0.86399999999999999</v>
@@ -7134,13 +7179,13 @@
     </row>
     <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D66">
         <v>0.76719999999999999</v>
@@ -7151,13 +7196,13 @@
     </row>
     <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D67">
         <v>0.76680000000000004</v>
@@ -7168,13 +7213,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D68">
         <v>0.76680000000000004</v>
@@ -7185,13 +7230,13 @@
     </row>
     <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D69">
         <v>0.76600000000000001</v>
@@ -7202,13 +7247,13 @@
     </row>
     <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D70">
         <v>0.85809999999999997</v>
@@ -7219,13 +7264,13 @@
     </row>
     <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D71">
         <v>0.85719999999999996</v>
@@ -7236,13 +7281,13 @@
     </row>
     <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D72">
         <v>0.8569</v>
@@ -7253,13 +7298,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D73">
         <v>0.8569</v>
@@ -7300,20 +7345,20 @@
   <sheetData>
     <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
         <v>56</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>0.83899999999999997</v>
@@ -7324,7 +7369,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>0.84150000000000003</v>
@@ -7335,7 +7380,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>0.84140000000000004</v>
@@ -7346,7 +7391,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>0.84109999999999996</v>
@@ -7357,7 +7402,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7">
         <v>0.80410000000000004</v>
@@ -7368,7 +7413,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8">
         <v>0.86480000000000001</v>
@@ -7379,20 +7424,20 @@
     </row>
     <row r="10" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
         <v>56</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12">
         <v>0.83309999999999995</v>
@@ -7403,7 +7448,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13">
         <v>0.8357</v>
@@ -7414,7 +7459,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14">
         <v>0.83489999999999998</v>
@@ -7425,7 +7470,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15">
         <v>0.81559999999999999</v>
@@ -7436,7 +7481,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16">
         <v>0.82210000000000005</v>
@@ -7447,7 +7492,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17">
         <v>0.81100000000000005</v>
@@ -7461,20 +7506,20 @@
     </row>
     <row r="19" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
         <v>56</v>
-      </c>
-      <c r="C20" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21">
         <v>0.79759999999999998</v>
@@ -7485,7 +7530,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>0.7984</v>
@@ -7496,7 +7541,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23">
         <v>0.79849999999999999</v>
@@ -7507,7 +7552,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24">
         <v>0.79779999999999995</v>
@@ -7518,7 +7563,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>0.76680000000000004</v>
@@ -7529,7 +7574,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26">
         <v>0.8569</v>
